--- a/output/BM1/subclustering T cell/new_markers.xlsx
+++ b/output/BM1/subclustering T cell/new_markers.xlsx
@@ -32,853 +32,832 @@
     <t>Marker</t>
   </si>
   <si>
-    <t>ABCA2</t>
-  </si>
-  <si>
-    <t>AC058791.1</t>
-  </si>
-  <si>
-    <t>AC159540.1</t>
-  </si>
-  <si>
-    <t>ACADM</t>
-  </si>
-  <si>
-    <t>ACADSB</t>
-  </si>
-  <si>
-    <t>ACTG1</t>
-  </si>
-  <si>
-    <t>ACTR3</t>
-  </si>
-  <si>
-    <t>ACTR3B</t>
-  </si>
-  <si>
-    <t>ADAMTS6</t>
-  </si>
-  <si>
-    <t>ADD3</t>
-  </si>
-  <si>
-    <t>AGA</t>
-  </si>
-  <si>
-    <t>AGAP2</t>
-  </si>
-  <si>
-    <t>AHNAK</t>
-  </si>
-  <si>
-    <t>AHSA2P</t>
-  </si>
-  <si>
-    <t>ALDH16A1</t>
+    <t>AARSD1</t>
+  </si>
+  <si>
+    <t>ABHD10</t>
+  </si>
+  <si>
+    <t>ABHD13</t>
+  </si>
+  <si>
+    <t>AC090498.1</t>
+  </si>
+  <si>
+    <t>ACAD10</t>
+  </si>
+  <si>
+    <t>ACP2</t>
+  </si>
+  <si>
+    <t>AEN</t>
+  </si>
+  <si>
+    <t>AGFG2</t>
+  </si>
+  <si>
+    <t>AK2</t>
+  </si>
+  <si>
+    <t>AKAP9</t>
+  </si>
+  <si>
+    <t>AKT1S1</t>
+  </si>
+  <si>
+    <t>AKTIP</t>
+  </si>
+  <si>
+    <t>ALDOA</t>
   </si>
   <si>
     <t>ALDOC</t>
   </si>
   <si>
-    <t>ALG11</t>
-  </si>
-  <si>
-    <t>ALOX5AP</t>
-  </si>
-  <si>
-    <t>ANKRD40</t>
-  </si>
-  <si>
-    <t>ANKS3</t>
-  </si>
-  <si>
-    <t>ANO9</t>
-  </si>
-  <si>
-    <t>ANXA2</t>
-  </si>
-  <si>
-    <t>AP2M1</t>
-  </si>
-  <si>
-    <t>AP4B1</t>
-  </si>
-  <si>
-    <t>APEX2</t>
-  </si>
-  <si>
-    <t>ARF5</t>
-  </si>
-  <si>
-    <t>ARHGEF26</t>
-  </si>
-  <si>
-    <t>ARHGEF6</t>
-  </si>
-  <si>
-    <t>ARID5B</t>
-  </si>
-  <si>
-    <t>ARL1</t>
+    <t>ANK3</t>
+  </si>
+  <si>
+    <t>ANKMY1</t>
+  </si>
+  <si>
+    <t>ANKRD12</t>
+  </si>
+  <si>
+    <t>ANKRD17</t>
+  </si>
+  <si>
+    <t>ANP32B</t>
+  </si>
+  <si>
+    <t>AP3B1</t>
+  </si>
+  <si>
+    <t>APOBEC3C</t>
+  </si>
+  <si>
+    <t>APOBR</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>ARAF</t>
+  </si>
+  <si>
+    <t>ARFGEF2</t>
+  </si>
+  <si>
+    <t>ARFIP2</t>
+  </si>
+  <si>
+    <t>ARIH2OS</t>
   </si>
   <si>
     <t>ARL2</t>
   </si>
   <si>
-    <t>ARL4C</t>
-  </si>
-  <si>
     <t>ARL6IP6</t>
   </si>
   <si>
-    <t>ARMC8</t>
-  </si>
-  <si>
-    <t>ARNTL</t>
-  </si>
-  <si>
-    <t>ARRB2</t>
-  </si>
-  <si>
-    <t>ARSA</t>
-  </si>
-  <si>
-    <t>ASCC3</t>
-  </si>
-  <si>
-    <t>ASL</t>
-  </si>
-  <si>
-    <t>ATP5F1E</t>
-  </si>
-  <si>
-    <t>ATP5PD</t>
-  </si>
-  <si>
-    <t>ATXN2L</t>
+    <t>ARMC10</t>
+  </si>
+  <si>
+    <t>ARMCX3</t>
+  </si>
+  <si>
+    <t>ARRDC5</t>
+  </si>
+  <si>
+    <t>ARV1</t>
+  </si>
+  <si>
+    <t>ASB16-AS1</t>
+  </si>
+  <si>
+    <t>ASH1L-AS1</t>
+  </si>
+  <si>
+    <t>ATN1</t>
+  </si>
+  <si>
+    <t>ATP13A2</t>
+  </si>
+  <si>
+    <t>ATP1B3</t>
+  </si>
+  <si>
+    <t>ATP6V1F</t>
   </si>
   <si>
     <t>AXIN2</t>
   </si>
   <si>
-    <t>BAG3</t>
-  </si>
-  <si>
-    <t>BAZ2B</t>
-  </si>
-  <si>
-    <t>BBIP1</t>
-  </si>
-  <si>
-    <t>BBS4</t>
-  </si>
-  <si>
-    <t>BCL10</t>
-  </si>
-  <si>
-    <t>BCL9L</t>
-  </si>
-  <si>
-    <t>BCLAF1</t>
-  </si>
-  <si>
-    <t>BDH1</t>
-  </si>
-  <si>
-    <t>BIN1</t>
-  </si>
-  <si>
-    <t>BIRC2</t>
-  </si>
-  <si>
-    <t>BRD3</t>
-  </si>
-  <si>
-    <t>BRMS1</t>
-  </si>
-  <si>
-    <t>BST2</t>
-  </si>
-  <si>
-    <t>BTG2</t>
-  </si>
-  <si>
-    <t>C18orf25</t>
+    <t>BAP1</t>
+  </si>
+  <si>
+    <t>BAZ2A</t>
+  </si>
+  <si>
+    <t>BEX2</t>
+  </si>
+  <si>
+    <t>BLOC1S2</t>
+  </si>
+  <si>
+    <t>BMPR2</t>
+  </si>
+  <si>
+    <t>BNIP2</t>
+  </si>
+  <si>
+    <t>BZW2</t>
+  </si>
+  <si>
+    <t>C11orf31</t>
+  </si>
+  <si>
+    <t>C14orf142</t>
+  </si>
+  <si>
+    <t>C15orf40</t>
+  </si>
+  <si>
+    <t>C1GALT1</t>
   </si>
   <si>
     <t>C1orf131</t>
   </si>
   <si>
-    <t>C1orf35</t>
-  </si>
-  <si>
-    <t>C21orf91</t>
-  </si>
-  <si>
-    <t>C4orf48</t>
-  </si>
-  <si>
-    <t>C5orf15</t>
-  </si>
-  <si>
-    <t>C8orf33</t>
-  </si>
-  <si>
-    <t>C8orf58</t>
-  </si>
-  <si>
-    <t>C9orf85</t>
-  </si>
-  <si>
-    <t>CALCOCO1</t>
-  </si>
-  <si>
-    <t>CALM3</t>
-  </si>
-  <si>
-    <t>CAPG</t>
-  </si>
-  <si>
-    <t>CARMIL1</t>
-  </si>
-  <si>
-    <t>CASC3</t>
-  </si>
-  <si>
-    <t>CASP4</t>
-  </si>
-  <si>
-    <t>CC2D1B</t>
-  </si>
-  <si>
-    <t>CCDC167</t>
-  </si>
-  <si>
-    <t>CCDC28B</t>
-  </si>
-  <si>
-    <t>CCDC91</t>
-  </si>
-  <si>
-    <t>CCNDBP1</t>
-  </si>
-  <si>
-    <t>CCT7</t>
-  </si>
-  <si>
-    <t>CD151</t>
-  </si>
-  <si>
-    <t>CD4</t>
-  </si>
-  <si>
-    <t>CD52</t>
-  </si>
-  <si>
-    <t>CD82</t>
-  </si>
-  <si>
-    <t>CDADC1</t>
-  </si>
-  <si>
-    <t>CDK5</t>
-  </si>
-  <si>
-    <t>CEP57</t>
-  </si>
-  <si>
-    <t>CETN2</t>
+    <t>C20orf27</t>
+  </si>
+  <si>
+    <t>C21orf2</t>
+  </si>
+  <si>
+    <t>C21orf59</t>
+  </si>
+  <si>
+    <t>C4orf3</t>
+  </si>
+  <si>
+    <t>C5orf45</t>
+  </si>
+  <si>
+    <t>CAPZA2</t>
+  </si>
+  <si>
+    <t>CCAR1</t>
+  </si>
+  <si>
+    <t>CCBL2</t>
+  </si>
+  <si>
+    <t>CCDC144A</t>
+  </si>
+  <si>
+    <t>CCDC157</t>
+  </si>
+  <si>
+    <t>CCDC47</t>
+  </si>
+  <si>
+    <t>CCND2</t>
+  </si>
+  <si>
+    <t>CCR6</t>
+  </si>
+  <si>
+    <t>CD3D</t>
+  </si>
+  <si>
+    <t>CD96</t>
+  </si>
+  <si>
+    <t>CDC42SE1</t>
+  </si>
+  <si>
+    <t>CDK19</t>
+  </si>
+  <si>
+    <t>CECR5</t>
+  </si>
+  <si>
+    <t>CEP57L1</t>
   </si>
   <si>
     <t>CFL2</t>
   </si>
   <si>
-    <t>CHCHD10</t>
-  </si>
-  <si>
-    <t>CIB1</t>
-  </si>
-  <si>
-    <t>CISD1</t>
-  </si>
-  <si>
-    <t>CLIP1</t>
-  </si>
-  <si>
-    <t>CNOT6</t>
-  </si>
-  <si>
-    <t>COG7</t>
-  </si>
-  <si>
-    <t>COMMD3</t>
-  </si>
-  <si>
-    <t>COMMD6</t>
+    <t>CHAF1A</t>
+  </si>
+  <si>
+    <t>CHD3</t>
+  </si>
+  <si>
+    <t>CHD7</t>
+  </si>
+  <si>
+    <t>CHFR</t>
+  </si>
+  <si>
+    <t>CHMP7</t>
+  </si>
+  <si>
+    <t>CHP1</t>
+  </si>
+  <si>
+    <t>CLCC1</t>
+  </si>
+  <si>
+    <t>CLEC2D</t>
+  </si>
+  <si>
+    <t>CLOCK</t>
+  </si>
+  <si>
+    <t>CNIH1</t>
+  </si>
+  <si>
+    <t>COG1</t>
+  </si>
+  <si>
+    <t>COMMD8</t>
   </si>
   <si>
     <t>COMMD9</t>
   </si>
   <si>
-    <t>COQ8A</t>
+    <t>COPG1</t>
   </si>
   <si>
     <t>COX11</t>
   </si>
   <si>
-    <t>CREB3</t>
-  </si>
-  <si>
-    <t>CROCC</t>
-  </si>
-  <si>
-    <t>CSDE1</t>
-  </si>
-  <si>
-    <t>CTB-55O6.12</t>
-  </si>
-  <si>
-    <t>CTC-428H11.2</t>
-  </si>
-  <si>
-    <t>CTD-2026K11.4</t>
-  </si>
-  <si>
-    <t>CTD-2035E11.5</t>
-  </si>
-  <si>
-    <t>CTD-3074O7.5</t>
-  </si>
-  <si>
-    <t>CXXC1</t>
-  </si>
-  <si>
-    <t>CYB5B</t>
-  </si>
-  <si>
-    <t>DBT</t>
-  </si>
-  <si>
-    <t>DCAF15</t>
-  </si>
-  <si>
-    <t>DCTD</t>
-  </si>
-  <si>
-    <t>DCUN1D1</t>
+    <t>COX18</t>
+  </si>
+  <si>
+    <t>COX19</t>
+  </si>
+  <si>
+    <t>CPQ</t>
+  </si>
+  <si>
+    <t>CPSF1</t>
+  </si>
+  <si>
+    <t>CRTC2</t>
+  </si>
+  <si>
+    <t>CTBP1</t>
+  </si>
+  <si>
+    <t>CTBP1-AS2</t>
+  </si>
+  <si>
+    <t>CTD-3214H19.4</t>
+  </si>
+  <si>
+    <t>CTSB</t>
+  </si>
+  <si>
+    <t>CYB561D1</t>
+  </si>
+  <si>
+    <t>CYP3A5</t>
+  </si>
+  <si>
+    <t>DBP</t>
+  </si>
+  <si>
+    <t>DCAF10</t>
+  </si>
+  <si>
+    <t>DCAF6</t>
+  </si>
+  <si>
+    <t>DCAF7</t>
+  </si>
+  <si>
+    <t>DCTN4</t>
   </si>
   <si>
     <t>DDIT4</t>
   </si>
   <si>
-    <t>DDX1</t>
-  </si>
-  <si>
-    <t>DDX11</t>
-  </si>
-  <si>
-    <t>DEAF1</t>
-  </si>
-  <si>
-    <t>DENND6B</t>
-  </si>
-  <si>
-    <t>DFFA</t>
-  </si>
-  <si>
-    <t>DFFB</t>
-  </si>
-  <si>
-    <t>DHRS4L2</t>
-  </si>
-  <si>
-    <t>DHX33</t>
-  </si>
-  <si>
-    <t>DIEXF</t>
-  </si>
-  <si>
-    <t>DLEU1</t>
-  </si>
-  <si>
-    <t>DNAJB14</t>
-  </si>
-  <si>
-    <t>DNAJC24</t>
-  </si>
-  <si>
-    <t>DNAL1</t>
-  </si>
-  <si>
-    <t>DNMT3A</t>
-  </si>
-  <si>
-    <t>E2F4</t>
-  </si>
-  <si>
-    <t>EAPP</t>
-  </si>
-  <si>
-    <t>EDF1</t>
-  </si>
-  <si>
-    <t>EDRF1</t>
-  </si>
-  <si>
-    <t>EFR3A</t>
-  </si>
-  <si>
-    <t>EFTUD2</t>
-  </si>
-  <si>
-    <t>EHD4</t>
-  </si>
-  <si>
-    <t>EID2B</t>
+    <t>DDX59</t>
+  </si>
+  <si>
+    <t>DGKA</t>
+  </si>
+  <si>
+    <t>DHRS3</t>
+  </si>
+  <si>
+    <t>DIDO1</t>
+  </si>
+  <si>
+    <t>DLGAP4</t>
+  </si>
+  <si>
+    <t>DNAJC13</t>
+  </si>
+  <si>
+    <t>DONSON</t>
+  </si>
+  <si>
+    <t>DPP4</t>
+  </si>
+  <si>
+    <t>DPY19L4</t>
+  </si>
+  <si>
+    <t>EAF1</t>
+  </si>
+  <si>
+    <t>EBLN2</t>
+  </si>
+  <si>
+    <t>ECE1</t>
+  </si>
+  <si>
+    <t>ECHS1</t>
+  </si>
+  <si>
+    <t>EIF2B3</t>
   </si>
   <si>
     <t>EIF2B4</t>
   </si>
   <si>
-    <t>EIF4A2</t>
-  </si>
-  <si>
-    <t>EIF4E</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>ENOPH1</t>
-  </si>
-  <si>
-    <t>EPM2AIP1</t>
-  </si>
-  <si>
-    <t>ERAP2</t>
-  </si>
-  <si>
-    <t>ERN1</t>
-  </si>
-  <si>
-    <t>ESS2</t>
-  </si>
-  <si>
-    <t>ETNK1</t>
-  </si>
-  <si>
-    <t>EXOG</t>
-  </si>
-  <si>
-    <t>FAHD1</t>
-  </si>
-  <si>
-    <t>FAM13B</t>
-  </si>
-  <si>
-    <t>FAM53B</t>
-  </si>
-  <si>
-    <t>FAM76A</t>
-  </si>
-  <si>
-    <t>FAR1</t>
-  </si>
-  <si>
-    <t>FASTK</t>
+    <t>EIF4H</t>
+  </si>
+  <si>
+    <t>ELK1</t>
+  </si>
+  <si>
+    <t>ERGIC1</t>
+  </si>
+  <si>
+    <t>ERP44</t>
+  </si>
+  <si>
+    <t>ETFA</t>
+  </si>
+  <si>
+    <t>EVI2B</t>
+  </si>
+  <si>
+    <t>EXOC7</t>
+  </si>
+  <si>
+    <t>FAM104B</t>
+  </si>
+  <si>
+    <t>FAM120B</t>
+  </si>
+  <si>
+    <t>FAM189B</t>
+  </si>
+  <si>
+    <t>FAM200B</t>
+  </si>
+  <si>
+    <t>FAM210A</t>
+  </si>
+  <si>
+    <t>FAM234A</t>
+  </si>
+  <si>
+    <t>FAM8A1</t>
+  </si>
+  <si>
+    <t>FASTKD2</t>
   </si>
   <si>
     <t>FBXL3</t>
   </si>
   <si>
-    <t>FBXO21</t>
-  </si>
-  <si>
-    <t>FBXO32</t>
-  </si>
-  <si>
-    <t>FBXO38</t>
-  </si>
-  <si>
-    <t>FLAD1</t>
-  </si>
-  <si>
-    <t>FPGS</t>
-  </si>
-  <si>
-    <t>FYB1</t>
-  </si>
-  <si>
-    <t>GDAP2</t>
-  </si>
-  <si>
-    <t>GDI1</t>
-  </si>
-  <si>
-    <t>GIGYF1</t>
-  </si>
-  <si>
-    <t>GIMAP2</t>
-  </si>
-  <si>
-    <t>GMDS</t>
-  </si>
-  <si>
-    <t>GMPR2</t>
-  </si>
-  <si>
-    <t>GPN1</t>
+    <t>FBXO42</t>
+  </si>
+  <si>
+    <t>FKBP2</t>
+  </si>
+  <si>
+    <t>FRG1</t>
+  </si>
+  <si>
+    <t>FYTTD1</t>
+  </si>
+  <si>
+    <t>GANC</t>
+  </si>
+  <si>
+    <t>GDF11</t>
+  </si>
+  <si>
+    <t>GEMIN2</t>
+  </si>
+  <si>
+    <t>GGT7</t>
+  </si>
+  <si>
+    <t>GLYCTK</t>
+  </si>
+  <si>
+    <t>GMPPB</t>
+  </si>
+  <si>
+    <t>GNB1</t>
+  </si>
+  <si>
+    <t>GNE</t>
+  </si>
+  <si>
+    <t>GNPDA2</t>
+  </si>
+  <si>
+    <t>GPKOW</t>
   </si>
   <si>
     <t>GPX4</t>
   </si>
   <si>
-    <t>GRAMD1A</t>
-  </si>
-  <si>
-    <t>GTF2B</t>
-  </si>
-  <si>
-    <t>GTF2IRD2B</t>
-  </si>
-  <si>
-    <t>GTPBP6</t>
-  </si>
-  <si>
-    <t>HADHB</t>
-  </si>
-  <si>
-    <t>HAR1B</t>
-  </si>
-  <si>
-    <t>HERPUD1</t>
-  </si>
-  <si>
-    <t>HINT1</t>
-  </si>
-  <si>
-    <t>HMGA1</t>
-  </si>
-  <si>
-    <t>HNRNPA3</t>
-  </si>
-  <si>
-    <t>HOOK1</t>
-  </si>
-  <si>
-    <t>HSD11B1L</t>
-  </si>
-  <si>
-    <t>HSD17B4</t>
-  </si>
-  <si>
-    <t>HSPD1</t>
-  </si>
-  <si>
-    <t>ICOS</t>
-  </si>
-  <si>
-    <t>IGF1R</t>
+    <t>GSKIP</t>
+  </si>
+  <si>
+    <t>GTF3A</t>
+  </si>
+  <si>
+    <t>H1F0</t>
+  </si>
+  <si>
+    <t>HAR1A</t>
+  </si>
+  <si>
+    <t>HDGF</t>
+  </si>
+  <si>
+    <t>HES6</t>
+  </si>
+  <si>
+    <t>HEXA</t>
+  </si>
+  <si>
+    <t>HIST1H1D</t>
+  </si>
+  <si>
+    <t>HIVEP1</t>
+  </si>
+  <si>
+    <t>HLA-DQB1</t>
+  </si>
+  <si>
+    <t>HMG20B</t>
+  </si>
+  <si>
+    <t>HNRNPM</t>
+  </si>
+  <si>
+    <t>HNRNPUL1</t>
+  </si>
+  <si>
+    <t>HS2ST1</t>
+  </si>
+  <si>
+    <t>HSD17B12</t>
+  </si>
+  <si>
+    <t>HSH2D</t>
+  </si>
+  <si>
+    <t>HSPA14</t>
+  </si>
+  <si>
+    <t>IAH1</t>
+  </si>
+  <si>
+    <t>IFFO2</t>
+  </si>
+  <si>
+    <t>IFI44</t>
   </si>
   <si>
     <t>IGHG1</t>
   </si>
   <si>
-    <t>IK</t>
-  </si>
-  <si>
-    <t>IL15</t>
-  </si>
-  <si>
-    <t>IMMT</t>
-  </si>
-  <si>
-    <t>ING3</t>
-  </si>
-  <si>
-    <t>INIP</t>
-  </si>
-  <si>
-    <t>INO80D</t>
-  </si>
-  <si>
-    <t>INSIG1</t>
-  </si>
-  <si>
-    <t>IPO5</t>
-  </si>
-  <si>
-    <t>IRF2</t>
-  </si>
-  <si>
-    <t>IZUMO4</t>
-  </si>
-  <si>
-    <t>KBTBD2</t>
-  </si>
-  <si>
-    <t>KCTD7</t>
-  </si>
-  <si>
-    <t>KDM2B</t>
-  </si>
-  <si>
-    <t>KDM3B</t>
-  </si>
-  <si>
-    <t>KDM6A</t>
-  </si>
-  <si>
-    <t>KIAA1191</t>
-  </si>
-  <si>
-    <t>KIF21B</t>
-  </si>
-  <si>
-    <t>KIF2A</t>
-  </si>
-  <si>
-    <t>KPNA1</t>
-  </si>
-  <si>
-    <t>LAMB1</t>
-  </si>
-  <si>
-    <t>LARP7</t>
-  </si>
-  <si>
-    <t>LATS1</t>
-  </si>
-  <si>
-    <t>LGALS3</t>
-  </si>
-  <si>
-    <t>LMBR1</t>
-  </si>
-  <si>
-    <t>LMBRD2</t>
-  </si>
-  <si>
-    <t>LRCH3</t>
-  </si>
-  <si>
-    <t>LRRC8C</t>
-  </si>
-  <si>
-    <t>LRRFIP1</t>
-  </si>
-  <si>
-    <t>LUZP1</t>
-  </si>
-  <si>
-    <t>MAGEH1</t>
-  </si>
-  <si>
-    <t>MAN2C1</t>
-  </si>
-  <si>
-    <t>MANBAL</t>
-  </si>
-  <si>
-    <t>MANEA-AS1</t>
-  </si>
-  <si>
-    <t>MAPKAP1</t>
-  </si>
-  <si>
-    <t>MATN1-AS1</t>
-  </si>
-  <si>
-    <t>MBD4</t>
-  </si>
-  <si>
-    <t>MCFD2</t>
-  </si>
-  <si>
-    <t>MCOLN1</t>
-  </si>
-  <si>
-    <t>MCUB</t>
-  </si>
-  <si>
-    <t>MED12</t>
-  </si>
-  <si>
-    <t>MED27</t>
-  </si>
-  <si>
-    <t>MED7</t>
-  </si>
-  <si>
-    <t>METAP1D</t>
-  </si>
-  <si>
-    <t>MFF</t>
-  </si>
-  <si>
-    <t>MINCR</t>
-  </si>
-  <si>
-    <t>MLF2</t>
-  </si>
-  <si>
-    <t>MMP24OS</t>
-  </si>
-  <si>
-    <t>MRI1</t>
-  </si>
-  <si>
-    <t>MRPL48</t>
-  </si>
-  <si>
-    <t>MRPL49</t>
-  </si>
-  <si>
-    <t>MRPS18B</t>
-  </si>
-  <si>
-    <t>MTHFD2</t>
-  </si>
-  <si>
-    <t>MYDGF</t>
-  </si>
-  <si>
-    <t>MZF1</t>
-  </si>
-  <si>
-    <t>NAALADL1</t>
-  </si>
-  <si>
-    <t>NABP1</t>
-  </si>
-  <si>
-    <t>NAF1</t>
-  </si>
-  <si>
-    <t>NARFL</t>
-  </si>
-  <si>
-    <t>NDRG2</t>
+    <t>IL1RAP</t>
+  </si>
+  <si>
+    <t>INADL</t>
+  </si>
+  <si>
+    <t>IPCEF1</t>
+  </si>
+  <si>
+    <t>IPO7</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>IRF9</t>
+  </si>
+  <si>
+    <t>ITSN2</t>
+  </si>
+  <si>
+    <t>JMY</t>
+  </si>
+  <si>
+    <t>JRK</t>
+  </si>
+  <si>
+    <t>JTB</t>
+  </si>
+  <si>
+    <t>KANK1</t>
+  </si>
+  <si>
+    <t>KCNK12</t>
+  </si>
+  <si>
+    <t>KCNK6</t>
+  </si>
+  <si>
+    <t>KIAA0586</t>
+  </si>
+  <si>
+    <t>KIF1BP</t>
+  </si>
+  <si>
+    <t>KLC2</t>
+  </si>
+  <si>
+    <t>KLHL3</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>LAMP2</t>
+  </si>
+  <si>
+    <t>LDHB</t>
+  </si>
+  <si>
+    <t>LGALS1</t>
+  </si>
+  <si>
+    <t>LINC00094</t>
+  </si>
+  <si>
+    <t>LINC00116</t>
+  </si>
+  <si>
+    <t>LINC00467</t>
+  </si>
+  <si>
+    <t>LINC00662</t>
+  </si>
+  <si>
+    <t>LINC00998</t>
+  </si>
+  <si>
+    <t>LIPT2</t>
+  </si>
+  <si>
+    <t>LPP</t>
+  </si>
+  <si>
+    <t>LRRC14</t>
+  </si>
+  <si>
+    <t>LRRC8B</t>
+  </si>
+  <si>
+    <t>LRWD1</t>
+  </si>
+  <si>
+    <t>LSG1</t>
+  </si>
+  <si>
+    <t>LSM3</t>
+  </si>
+  <si>
+    <t>LTBP3</t>
+  </si>
+  <si>
+    <t>LTBP4</t>
+  </si>
+  <si>
+    <t>LYPLA2</t>
+  </si>
+  <si>
+    <t>LYSMD2</t>
+  </si>
+  <si>
+    <t>MACF1</t>
+  </si>
+  <si>
+    <t>MAP4K1</t>
+  </si>
+  <si>
+    <t>MARCKSL1</t>
+  </si>
+  <si>
+    <t>MASTL</t>
+  </si>
+  <si>
+    <t>MBD3</t>
+  </si>
+  <si>
+    <t>MED26</t>
+  </si>
+  <si>
+    <t>METTL12</t>
+  </si>
+  <si>
+    <t>MFHAS1</t>
+  </si>
+  <si>
+    <t>MFSD11</t>
+  </si>
+  <si>
+    <t>MFSD12</t>
+  </si>
+  <si>
+    <t>MGST3</t>
+  </si>
+  <si>
+    <t>MIF4GD</t>
+  </si>
+  <si>
+    <t>MINA</t>
+  </si>
+  <si>
+    <t>MINK1</t>
+  </si>
+  <si>
+    <t>MKNK2</t>
+  </si>
+  <si>
+    <t>MORN2</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>MPO</t>
+  </si>
+  <si>
+    <t>MRFAP1L1</t>
+  </si>
+  <si>
+    <t>MRPL24</t>
+  </si>
+  <si>
+    <t>MRPL45</t>
+  </si>
+  <si>
+    <t>MSRB2</t>
+  </si>
+  <si>
+    <t>MT-CO2</t>
+  </si>
+  <si>
+    <t>MT-ND6</t>
+  </si>
+  <si>
+    <t>MTHFR</t>
+  </si>
+  <si>
+    <t>MTMR4</t>
   </si>
   <si>
     <t>NDUFA1</t>
   </si>
   <si>
-    <t>NDUFAF4</t>
-  </si>
-  <si>
-    <t>NDUFAF5</t>
-  </si>
-  <si>
-    <t>NDUFS5</t>
-  </si>
-  <si>
-    <t>NIFK</t>
-  </si>
-  <si>
-    <t>NME1</t>
-  </si>
-  <si>
-    <t>NMT2</t>
-  </si>
-  <si>
-    <t>NNT</t>
-  </si>
-  <si>
-    <t>NOP56</t>
-  </si>
-  <si>
-    <t>NPC1</t>
-  </si>
-  <si>
-    <t>NPDC1</t>
-  </si>
-  <si>
-    <t>NRF1</t>
-  </si>
-  <si>
-    <t>NUB1</t>
+    <t>NDUFB6</t>
+  </si>
+  <si>
+    <t>NDUFB7</t>
+  </si>
+  <si>
+    <t>NFKBIA</t>
+  </si>
+  <si>
+    <t>NLRC3</t>
+  </si>
+  <si>
+    <t>NME2</t>
+  </si>
+  <si>
+    <t>NME3</t>
+  </si>
+  <si>
+    <t>NOP16</t>
+  </si>
+  <si>
+    <t>NPLOC4</t>
+  </si>
+  <si>
+    <t>NSRP1</t>
+  </si>
+  <si>
+    <t>NUBPL</t>
   </si>
   <si>
     <t>NUCB2</t>
   </si>
   <si>
-    <t>NUDT4</t>
-  </si>
-  <si>
-    <t>OAZ1</t>
-  </si>
-  <si>
-    <t>OSGEP</t>
-  </si>
-  <si>
-    <t>PA2G4</t>
-  </si>
-  <si>
-    <t>PABPC1</t>
-  </si>
-  <si>
-    <t>PAFAH1B3</t>
-  </si>
-  <si>
-    <t>PARL</t>
-  </si>
-  <si>
-    <t>PARP2</t>
-  </si>
-  <si>
-    <t>PAXIP1-AS1</t>
-  </si>
-  <si>
-    <t>PCBD1</t>
+    <t>NUDT16</t>
+  </si>
+  <si>
+    <t>NUDT18</t>
+  </si>
+  <si>
+    <t>NUP210</t>
+  </si>
+  <si>
+    <t>NUP98</t>
+  </si>
+  <si>
+    <t>ORC5</t>
+  </si>
+  <si>
+    <t>OSBP</t>
+  </si>
+  <si>
+    <t>OSM</t>
+  </si>
+  <si>
+    <t>PAN2</t>
+  </si>
+  <si>
+    <t>PAQR3</t>
   </si>
   <si>
     <t>PCID2</t>
   </si>
   <si>
-    <t>PCNX2</t>
-  </si>
-  <si>
-    <t>PDP1</t>
-  </si>
-  <si>
-    <t>PDZD11</t>
-  </si>
-  <si>
-    <t>PEX10</t>
-  </si>
-  <si>
-    <t>PEX6</t>
-  </si>
-  <si>
-    <t>PFDN5</t>
-  </si>
-  <si>
-    <t>PFKL</t>
-  </si>
-  <si>
-    <t>PGAM1</t>
-  </si>
-  <si>
-    <t>PGS1</t>
-  </si>
-  <si>
-    <t>PHACTR2</t>
-  </si>
-  <si>
-    <t>PHF7</t>
-  </si>
-  <si>
-    <t>PIP4K2C</t>
-  </si>
-  <si>
-    <t>PLAC8</t>
-  </si>
-  <si>
-    <t>PLCB2</t>
-  </si>
-  <si>
-    <t>PLCE1</t>
+    <t>PCNX</t>
+  </si>
+  <si>
+    <t>PDE12</t>
+  </si>
+  <si>
+    <t>PDE4B</t>
+  </si>
+  <si>
+    <t>PDHB</t>
+  </si>
+  <si>
+    <t>PDK2</t>
+  </si>
+  <si>
+    <t>PDSS2</t>
+  </si>
+  <si>
+    <t>PER2</t>
+  </si>
+  <si>
+    <t>PGAP1</t>
+  </si>
+  <si>
+    <t>PGGT1B</t>
+  </si>
+  <si>
+    <t>PGK1</t>
+  </si>
+  <si>
+    <t>PIAS1</t>
+  </si>
+  <si>
+    <t>PIGP</t>
+  </si>
+  <si>
+    <t>PIGT</t>
+  </si>
+  <si>
+    <t>PIN1</t>
+  </si>
+  <si>
+    <t>PINX1</t>
+  </si>
+  <si>
+    <t>PKN1</t>
+  </si>
+  <si>
+    <t>PLCD1</t>
+  </si>
+  <si>
+    <t>PLCXD1</t>
+  </si>
+  <si>
+    <t>PLP2</t>
+  </si>
+  <si>
+    <t>PLXDC1</t>
   </si>
   <si>
     <t>PLXNC1</t>
@@ -887,595 +866,616 @@
     <t>PMM1</t>
   </si>
   <si>
-    <t>POGZ</t>
-  </si>
-  <si>
-    <t>POLD2</t>
-  </si>
-  <si>
-    <t>POLG</t>
-  </si>
-  <si>
-    <t>POLR2J3</t>
-  </si>
-  <si>
-    <t>POLR3F</t>
-  </si>
-  <si>
-    <t>POLRMT</t>
-  </si>
-  <si>
-    <t>POM121C</t>
+    <t>PMM2</t>
+  </si>
+  <si>
+    <t>PNN</t>
+  </si>
+  <si>
+    <t>PNPLA4</t>
+  </si>
+  <si>
+    <t>POC5</t>
+  </si>
+  <si>
+    <t>POT1</t>
+  </si>
+  <si>
+    <t>PPARD</t>
   </si>
   <si>
     <t>PPCS</t>
   </si>
   <si>
-    <t>PPFIA1</t>
-  </si>
-  <si>
-    <t>PPP1CB</t>
-  </si>
-  <si>
-    <t>PPP1R12C</t>
+    <t>PPID</t>
+  </si>
+  <si>
+    <t>PPM1N</t>
   </si>
   <si>
     <t>PPP2CB</t>
   </si>
   <si>
-    <t>PRIMPOL</t>
-  </si>
-  <si>
-    <t>PRKAR1A</t>
-  </si>
-  <si>
-    <t>PRKCQ</t>
-  </si>
-  <si>
-    <t>PRPF3</t>
-  </si>
-  <si>
-    <t>PRRT3</t>
-  </si>
-  <si>
-    <t>PSME2</t>
+    <t>PPP6R1</t>
+  </si>
+  <si>
+    <t>PREPL</t>
+  </si>
+  <si>
+    <t>PRIM1</t>
+  </si>
+  <si>
+    <t>PRKCA</t>
+  </si>
+  <si>
+    <t>PRMT5</t>
+  </si>
+  <si>
+    <t>PRNP</t>
+  </si>
+  <si>
+    <t>PRRC2C</t>
+  </si>
+  <si>
+    <t>PSD4</t>
+  </si>
+  <si>
+    <t>PSMB9</t>
+  </si>
+  <si>
+    <t>PSMC2</t>
+  </si>
+  <si>
+    <t>PSMD6</t>
+  </si>
+  <si>
+    <t>PTK6</t>
+  </si>
+  <si>
+    <t>PTMA</t>
   </si>
   <si>
     <t>PURA</t>
   </si>
   <si>
-    <t>PUS1</t>
-  </si>
-  <si>
-    <t>PUS10</t>
+    <t>PURB</t>
+  </si>
+  <si>
+    <t>PXK</t>
   </si>
   <si>
     <t>PXMP2</t>
   </si>
   <si>
-    <t>PYCARD</t>
-  </si>
-  <si>
-    <t>QTRT1</t>
-  </si>
-  <si>
-    <t>RABGGTB</t>
-  </si>
-  <si>
-    <t>RALBP1</t>
-  </si>
-  <si>
-    <t>RAP2C-AS1</t>
-  </si>
-  <si>
-    <t>RAPGEF1</t>
-  </si>
-  <si>
-    <t>RASA1</t>
-  </si>
-  <si>
-    <t>RBM38</t>
-  </si>
-  <si>
-    <t>RCAN3</t>
+    <t>PYGB</t>
+  </si>
+  <si>
+    <t>QSOX1</t>
+  </si>
+  <si>
+    <t>RAB11A</t>
+  </si>
+  <si>
+    <t>RABL3</t>
+  </si>
+  <si>
+    <t>RAD9A</t>
+  </si>
+  <si>
+    <t>RBM11</t>
+  </si>
+  <si>
+    <t>RBM18</t>
+  </si>
+  <si>
+    <t>RDH13</t>
   </si>
   <si>
     <t>RDH14</t>
   </si>
   <si>
-    <t>REC8</t>
-  </si>
-  <si>
-    <t>RECK</t>
-  </si>
-  <si>
-    <t>RELB</t>
-  </si>
-  <si>
-    <t>RFK</t>
-  </si>
-  <si>
-    <t>RIC3</t>
-  </si>
-  <si>
-    <t>RIOK2</t>
+    <t>RECQL</t>
+  </si>
+  <si>
+    <t>RENBP</t>
+  </si>
+  <si>
+    <t>RERE</t>
+  </si>
+  <si>
+    <t>RFC1</t>
+  </si>
+  <si>
+    <t>RHBDD1</t>
+  </si>
+  <si>
+    <t>RIPK2</t>
+  </si>
+  <si>
+    <t>RMND1</t>
   </si>
   <si>
     <t>RMND5B</t>
   </si>
   <si>
-    <t>RNF8</t>
-  </si>
-  <si>
-    <t>RNH1</t>
-  </si>
-  <si>
-    <t>RP11-108M9.6</t>
-  </si>
-  <si>
-    <t>RP11-1094M14.11</t>
-  </si>
-  <si>
-    <t>RP11-111M22.3</t>
-  </si>
-  <si>
-    <t>RP11-1398P2.1</t>
-  </si>
-  <si>
-    <t>RP11-166B2.5</t>
-  </si>
-  <si>
-    <t>RP11-22P6.2</t>
-  </si>
-  <si>
-    <t>RP11-297D21.4</t>
-  </si>
-  <si>
-    <t>RP11-354P11.3</t>
-  </si>
-  <si>
-    <t>RP11-467L13.7</t>
-  </si>
-  <si>
-    <t>RP11-701H24.9</t>
-  </si>
-  <si>
-    <t>RP5-1021I20.1</t>
-  </si>
-  <si>
-    <t>RP5-1180E21.5</t>
-  </si>
-  <si>
-    <t>RPL17</t>
+    <t>RNASEH1-AS1</t>
+  </si>
+  <si>
+    <t>RNF139-AS1</t>
+  </si>
+  <si>
+    <t>RNF146</t>
+  </si>
+  <si>
+    <t>RNF181</t>
+  </si>
+  <si>
+    <t>RNF43</t>
+  </si>
+  <si>
+    <t>RP11-138A9.1</t>
+  </si>
+  <si>
+    <t>RP11-166O4.6</t>
+  </si>
+  <si>
+    <t>RP11-223C24.1</t>
+  </si>
+  <si>
+    <t>RP11-332H14.2</t>
+  </si>
+  <si>
+    <t>RP11-413H22.2</t>
+  </si>
+  <si>
+    <t>RP11-473M20.16</t>
+  </si>
+  <si>
+    <t>RP11-493L12.4</t>
+  </si>
+  <si>
+    <t>RP11-734K2.4</t>
+  </si>
+  <si>
+    <t>RP11-796E2.4</t>
+  </si>
+  <si>
+    <t>RPL28</t>
   </si>
   <si>
     <t>RPL29</t>
   </si>
   <si>
-    <t>RPL36A</t>
-  </si>
-  <si>
-    <t>RPL7A</t>
-  </si>
-  <si>
-    <t>RPL8</t>
-  </si>
-  <si>
-    <t>RPLP0</t>
-  </si>
-  <si>
-    <t>RPP14</t>
-  </si>
-  <si>
-    <t>RPS10</t>
-  </si>
-  <si>
-    <t>RPS19</t>
-  </si>
-  <si>
-    <t>RPS6KC1</t>
-  </si>
-  <si>
-    <t>RPUSD2</t>
-  </si>
-  <si>
-    <t>S100A4</t>
-  </si>
-  <si>
-    <t>SAMD9L</t>
-  </si>
-  <si>
-    <t>SARDH</t>
+    <t>RPL37</t>
+  </si>
+  <si>
+    <t>RPL39</t>
+  </si>
+  <si>
+    <t>RPL41</t>
+  </si>
+  <si>
+    <t>RPLP1</t>
+  </si>
+  <si>
+    <t>RPS11</t>
+  </si>
+  <si>
+    <t>RPS6KA4</t>
+  </si>
+  <si>
+    <t>RWDD1</t>
+  </si>
+  <si>
+    <t>S100A6</t>
+  </si>
+  <si>
+    <t>S100PBP</t>
+  </si>
+  <si>
+    <t>S1PR1</t>
+  </si>
+  <si>
+    <t>SARAF</t>
+  </si>
+  <si>
+    <t>SARNP</t>
   </si>
   <si>
     <t>SBNO1</t>
   </si>
   <si>
-    <t>SCAF8</t>
-  </si>
-  <si>
-    <t>SCO2</t>
-  </si>
-  <si>
-    <t>SCOC</t>
-  </si>
-  <si>
-    <t>SDCCAG3</t>
-  </si>
-  <si>
-    <t>SEPT1</t>
-  </si>
-  <si>
-    <t>SEPT6</t>
-  </si>
-  <si>
-    <t>SERINC5</t>
-  </si>
-  <si>
-    <t>SETDB1</t>
-  </si>
-  <si>
-    <t>SGK494</t>
-  </si>
-  <si>
-    <t>SHKBP1</t>
-  </si>
-  <si>
-    <t>SIRT3</t>
-  </si>
-  <si>
-    <t>SKP2</t>
-  </si>
-  <si>
-    <t>SLC10A7</t>
-  </si>
-  <si>
-    <t>SLC16A10</t>
-  </si>
-  <si>
-    <t>SLC25A51</t>
-  </si>
-  <si>
-    <t>SLC30A7</t>
-  </si>
-  <si>
-    <t>SLC33A1</t>
-  </si>
-  <si>
-    <t>SLC36A4</t>
-  </si>
-  <si>
-    <t>SLC38A5</t>
-  </si>
-  <si>
-    <t>SLC39A1</t>
-  </si>
-  <si>
-    <t>SLC39A3</t>
-  </si>
-  <si>
-    <t>SLC7A6</t>
-  </si>
-  <si>
-    <t>SLC9A8</t>
-  </si>
-  <si>
-    <t>SMC2</t>
-  </si>
-  <si>
-    <t>SMG1</t>
-  </si>
-  <si>
-    <t>SMG9</t>
-  </si>
-  <si>
-    <t>SMIM7</t>
+    <t>SCAF1</t>
+  </si>
+  <si>
+    <t>SCAF4</t>
+  </si>
+  <si>
+    <t>SCPEP1</t>
+  </si>
+  <si>
+    <t>SEC11A</t>
+  </si>
+  <si>
+    <t>SEC61A1</t>
+  </si>
+  <si>
+    <t>SETD1A</t>
+  </si>
+  <si>
+    <t>SETD4</t>
+  </si>
+  <si>
+    <t>SETX</t>
+  </si>
+  <si>
+    <t>SEZ6</t>
+  </si>
+  <si>
+    <t>SFXN3</t>
+  </si>
+  <si>
+    <t>SH2D3A</t>
+  </si>
+  <si>
+    <t>SH3D19</t>
+  </si>
+  <si>
+    <t>SIAH2</t>
+  </si>
+  <si>
+    <t>SIGIRR</t>
+  </si>
+  <si>
+    <t>SIPA1L1</t>
+  </si>
+  <si>
+    <t>SLC25A19</t>
+  </si>
+  <si>
+    <t>SLC25A45</t>
+  </si>
+  <si>
+    <t>SLC25A6</t>
+  </si>
+  <si>
+    <t>SLC35B2</t>
+  </si>
+  <si>
+    <t>SLC38A10</t>
+  </si>
+  <si>
+    <t>SLC44A1</t>
+  </si>
+  <si>
+    <t>SLC4A1AP</t>
+  </si>
+  <si>
+    <t>SLC9B2</t>
+  </si>
+  <si>
+    <t>SMAD5</t>
+  </si>
+  <si>
+    <t>SMAP2</t>
   </si>
   <si>
     <t>SMN2</t>
   </si>
   <si>
-    <t>SNRNP70</t>
-  </si>
-  <si>
-    <t>SNRPD2</t>
-  </si>
-  <si>
-    <t>SP4</t>
-  </si>
-  <si>
-    <t>SPAST</t>
-  </si>
-  <si>
-    <t>SPATS2L</t>
-  </si>
-  <si>
-    <t>SPCS1</t>
-  </si>
-  <si>
-    <t>SPRTN</t>
-  </si>
-  <si>
-    <t>SRGAP2C</t>
-  </si>
-  <si>
-    <t>SRSF10</t>
-  </si>
-  <si>
-    <t>STK19</t>
-  </si>
-  <si>
-    <t>STMN3</t>
+    <t>SNRNP200</t>
+  </si>
+  <si>
+    <t>SNRPB</t>
+  </si>
+  <si>
+    <t>SNX14</t>
+  </si>
+  <si>
+    <t>SNX19</t>
+  </si>
+  <si>
+    <t>SNX8</t>
+  </si>
+  <si>
+    <t>SPRYD4</t>
+  </si>
+  <si>
+    <t>SREK1IP1</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>SSBP3</t>
+  </si>
+  <si>
+    <t>ST7L</t>
+  </si>
+  <si>
+    <t>ST8SIA1</t>
   </si>
   <si>
     <t>STUB1</t>
   </si>
   <si>
-    <t>STX17-AS1</t>
-  </si>
-  <si>
-    <t>STX8</t>
-  </si>
-  <si>
-    <t>SVIP</t>
-  </si>
-  <si>
-    <t>SWI5</t>
+    <t>STXBP3</t>
+  </si>
+  <si>
+    <t>SUGP2</t>
+  </si>
+  <si>
+    <t>SUPT5H</t>
+  </si>
+  <si>
+    <t>SUPT6H</t>
+  </si>
+  <si>
+    <t>SVIL</t>
+  </si>
+  <si>
+    <t>SYNGAP1</t>
+  </si>
+  <si>
+    <t>TADA1</t>
+  </si>
+  <si>
+    <t>TANC2</t>
+  </si>
+  <si>
+    <t>TANGO2</t>
+  </si>
+  <si>
+    <t>TARS</t>
+  </si>
+  <si>
+    <t>TBC1D17</t>
   </si>
   <si>
     <t>TBC1D32</t>
   </si>
   <si>
-    <t>TBC1D7</t>
-  </si>
-  <si>
-    <t>TCEAL8</t>
+    <t>TCEB3</t>
+  </si>
+  <si>
+    <t>TCEB3-AS1</t>
+  </si>
+  <si>
+    <t>TCP11L2</t>
+  </si>
+  <si>
+    <t>TCTE3</t>
   </si>
   <si>
     <t>TESPA1</t>
   </si>
   <si>
-    <t>TFB1M</t>
-  </si>
-  <si>
-    <t>TGIF1</t>
-  </si>
-  <si>
-    <t>THAP12</t>
-  </si>
-  <si>
-    <t>THAP3</t>
-  </si>
-  <si>
-    <t>THAP7-AS1</t>
-  </si>
-  <si>
-    <t>THOC3</t>
+    <t>THAP2</t>
+  </si>
+  <si>
+    <t>THG1L</t>
   </si>
   <si>
     <t>THOC6</t>
   </si>
   <si>
-    <t>TMEM101</t>
+    <t>TIMM21</t>
+  </si>
+  <si>
+    <t>TLK2</t>
+  </si>
+  <si>
+    <t>TMC8</t>
+  </si>
+  <si>
+    <t>TMED2</t>
+  </si>
+  <si>
+    <t>TMED4</t>
   </si>
   <si>
     <t>TMEM123</t>
   </si>
   <si>
-    <t>TMEM156</t>
-  </si>
-  <si>
-    <t>TMEM214</t>
-  </si>
-  <si>
-    <t>TMEM258</t>
-  </si>
-  <si>
-    <t>TMEM267</t>
-  </si>
-  <si>
-    <t>TMEM38B</t>
-  </si>
-  <si>
-    <t>TMEM42</t>
-  </si>
-  <si>
-    <t>TMEM69</t>
-  </si>
-  <si>
-    <t>TNFAIP8L1</t>
-  </si>
-  <si>
-    <t>TNFRSF10A</t>
-  </si>
-  <si>
-    <t>TNFRSF1A</t>
-  </si>
-  <si>
-    <t>TNFSF8</t>
-  </si>
-  <si>
-    <t>TNIP2</t>
-  </si>
-  <si>
-    <t>TNPO3</t>
+    <t>TMEM150A</t>
+  </si>
+  <si>
+    <t>TMEM223</t>
+  </si>
+  <si>
+    <t>TMEM230</t>
+  </si>
+  <si>
+    <t>TMEM68</t>
+  </si>
+  <si>
+    <t>TMEM99</t>
+  </si>
+  <si>
+    <t>TMUB1</t>
+  </si>
+  <si>
+    <t>TMX2</t>
+  </si>
+  <si>
+    <t>TMX4</t>
+  </si>
+  <si>
+    <t>TNFSF13B</t>
   </si>
   <si>
     <t>TOMM20</t>
   </si>
   <si>
-    <t>TOMM22</t>
-  </si>
-  <si>
-    <t>TOP3B</t>
-  </si>
-  <si>
-    <t>TOR1AIP2</t>
-  </si>
-  <si>
-    <t>TPGS2</t>
-  </si>
-  <si>
-    <t>TPI1</t>
-  </si>
-  <si>
-    <t>TPK1</t>
-  </si>
-  <si>
-    <t>TRAPPC2L</t>
-  </si>
-  <si>
-    <t>TRIP4</t>
-  </si>
-  <si>
-    <t>TRIR</t>
-  </si>
-  <si>
-    <t>TSPAN14</t>
-  </si>
-  <si>
-    <t>TULP4</t>
-  </si>
-  <si>
-    <t>UBL4A</t>
-  </si>
-  <si>
-    <t>UBQLN1</t>
-  </si>
-  <si>
-    <t>UBR2</t>
+    <t>TRIM28</t>
+  </si>
+  <si>
+    <t>TRMT12</t>
+  </si>
+  <si>
+    <t>TRPT1</t>
+  </si>
+  <si>
+    <t>TSPAN17</t>
+  </si>
+  <si>
+    <t>TSR3</t>
+  </si>
+  <si>
+    <t>TTPAL</t>
+  </si>
+  <si>
+    <t>TUSC2</t>
+  </si>
+  <si>
+    <t>TXNDC12</t>
+  </si>
+  <si>
+    <t>TXNRD2</t>
+  </si>
+  <si>
+    <t>UBE2A</t>
+  </si>
+  <si>
+    <t>UBE2F</t>
+  </si>
+  <si>
+    <t>UBE2H</t>
+  </si>
+  <si>
+    <t>UBE2O</t>
+  </si>
+  <si>
+    <t>UBIAD1</t>
+  </si>
+  <si>
+    <t>UBL5</t>
+  </si>
+  <si>
+    <t>UBOX5</t>
+  </si>
+  <si>
+    <t>UBQLN4</t>
   </si>
   <si>
     <t>UBXN2A</t>
   </si>
   <si>
-    <t>UBXN7</t>
-  </si>
-  <si>
-    <t>USP14</t>
-  </si>
-  <si>
-    <t>USP28</t>
-  </si>
-  <si>
-    <t>USP39</t>
+    <t>UGGT1</t>
+  </si>
+  <si>
+    <t>UMPS</t>
+  </si>
+  <si>
+    <t>UROS</t>
+  </si>
+  <si>
+    <t>USO1</t>
+  </si>
+  <si>
+    <t>USP10</t>
+  </si>
+  <si>
+    <t>USP3</t>
+  </si>
+  <si>
+    <t>USP34</t>
+  </si>
+  <si>
+    <t>USP36</t>
   </si>
   <si>
     <t>USP4</t>
   </si>
   <si>
-    <t>USP42</t>
-  </si>
-  <si>
-    <t>USP53</t>
-  </si>
-  <si>
-    <t>UTP14A</t>
-  </si>
-  <si>
-    <t>VARS</t>
-  </si>
-  <si>
-    <t>VAT1</t>
-  </si>
-  <si>
-    <t>VDAC3</t>
-  </si>
-  <si>
-    <t>VIM-AS1</t>
-  </si>
-  <si>
-    <t>VIPR1</t>
-  </si>
-  <si>
-    <t>VPS36</t>
-  </si>
-  <si>
-    <t>WDFY1</t>
-  </si>
-  <si>
-    <t>WDR18</t>
-  </si>
-  <si>
-    <t>WDR3</t>
-  </si>
-  <si>
-    <t>WDR59</t>
-  </si>
-  <si>
-    <t>WDR77</t>
-  </si>
-  <si>
-    <t>XRCC6</t>
-  </si>
-  <si>
-    <t>XYLT2</t>
-  </si>
-  <si>
-    <t>YTHDF2</t>
-  </si>
-  <si>
-    <t>YWHAE</t>
-  </si>
-  <si>
-    <t>ZBED5</t>
-  </si>
-  <si>
-    <t>ZBTB16</t>
-  </si>
-  <si>
-    <t>ZC3H18</t>
-  </si>
-  <si>
-    <t>ZC3H7B</t>
-  </si>
-  <si>
-    <t>ZMYM1</t>
-  </si>
-  <si>
-    <t>ZNF141</t>
-  </si>
-  <si>
-    <t>ZNF264</t>
-  </si>
-  <si>
-    <t>ZNF317</t>
-  </si>
-  <si>
-    <t>ZNF48</t>
-  </si>
-  <si>
-    <t>ZNF487</t>
+    <t>USP51</t>
+  </si>
+  <si>
+    <t>VPS11</t>
+  </si>
+  <si>
+    <t>VPS35</t>
+  </si>
+  <si>
+    <t>VPS50</t>
+  </si>
+  <si>
+    <t>WDR6</t>
+  </si>
+  <si>
+    <t>WRN</t>
+  </si>
+  <si>
+    <t>XPOT</t>
+  </si>
+  <si>
+    <t>ZBED4</t>
+  </si>
+  <si>
+    <t>ZBTB37</t>
+  </si>
+  <si>
+    <t>ZC3H8</t>
+  </si>
+  <si>
+    <t>ZMYND11</t>
+  </si>
+  <si>
+    <t>ZNF280B</t>
+  </si>
+  <si>
+    <t>ZNF324</t>
+  </si>
+  <si>
+    <t>ZNF329</t>
+  </si>
+  <si>
+    <t>ZNF337</t>
+  </si>
+  <si>
+    <t>ZNF407</t>
   </si>
   <si>
     <t>ZNF506</t>
   </si>
   <si>
-    <t>ZNF563</t>
-  </si>
-  <si>
-    <t>ZNF609</t>
-  </si>
-  <si>
-    <t>ZNF681</t>
-  </si>
-  <si>
-    <t>ZNF692</t>
-  </si>
-  <si>
-    <t>ZNF766</t>
-  </si>
-  <si>
-    <t>ZNF780A</t>
-  </si>
-  <si>
-    <t>ZNF791</t>
-  </si>
-  <si>
-    <t>ZNF800</t>
-  </si>
-  <si>
-    <t>ZNF865</t>
+    <t>ZNF518A</t>
+  </si>
+  <si>
+    <t>ZNF518B</t>
+  </si>
+  <si>
+    <t>ZNF540</t>
+  </si>
+  <si>
+    <t>ZNF549</t>
+  </si>
+  <si>
+    <t>ZNF561</t>
+  </si>
+  <si>
+    <t>ZNF562</t>
+  </si>
+  <si>
+    <t>ZNF564</t>
+  </si>
+  <si>
+    <t>ZNF784</t>
+  </si>
+  <si>
+    <t>ZNF846</t>
+  </si>
+  <si>
+    <t>ZNF879</t>
+  </si>
+  <si>
+    <t>ZNF92</t>
+  </si>
+  <si>
+    <t>ZRSR2</t>
+  </si>
+  <si>
+    <t>ZXDB</t>
   </si>
   <si>
     <t>CellTypeGrouped</t>
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1918,10 +1918,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1986,10 +1986,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2122,10 +2122,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2156,7 +2156,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2176,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2275,7 +2275,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2326,10 +2326,10 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2462,13 +2462,13 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2530,13 +2530,13 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2550,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2581,10 +2581,10 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2632,10 +2632,10 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2683,10 +2683,10 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2768,13 +2768,13 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2853,10 +2853,10 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2887,7 +2887,7 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2904,16 +2904,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2955,13 +2955,13 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2978,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2989,7 +2989,7 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3057,7 +3057,7 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3074,13 +3074,13 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3108,10 +3108,10 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3295,7 +3295,7 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3380,13 +3380,13 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3431,7 +3431,7 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3465,10 +3465,10 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3516,10 +3516,10 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3567,7 +3567,7 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3618,10 +3618,10 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3737,7 +3737,7 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3757,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3771,7 +3771,7 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3811,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3822,10 +3822,10 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3890,13 +3890,13 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3964,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -4026,7 +4026,7 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4046,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -4083,10 +4083,10 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4094,10 +4094,10 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -4128,13 +4128,13 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4216,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4284,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4349,7 +4349,7 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4434,10 +4434,10 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -4454,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -4485,10 +4485,10 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4525,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4570,7 +4570,7 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4587,13 +4587,13 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -4621,13 +4621,13 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4689,7 +4689,7 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4709,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4740,13 +4740,13 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4791,10 +4791,10 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -4811,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>179</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -4845,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -4879,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4896,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4944,10 +4944,10 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -4984,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4995,13 +4995,13 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>0</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -5012,13 +5012,13 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -5029,10 +5029,10 @@
         <v>191</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -5066,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5114,10 +5114,10 @@
         <v>196</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>197</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -5151,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5168,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5182,10 +5182,10 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5250,7 +5250,7 @@
         <v>204</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -5301,13 +5301,13 @@
         <v>207</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -5321,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -5338,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5352,7 +5352,7 @@
         <v>210</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5369,13 +5369,13 @@
         <v>211</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208">
         <v>0</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5426,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5437,10 +5437,10 @@
         <v>215</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>216</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -5477,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5522,7 +5522,7 @@
         <v>220</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -5573,10 +5573,10 @@
         <v>223</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -5607,13 +5607,13 @@
         <v>225</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -5644,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -5664,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5675,7 +5675,7 @@
         <v>229</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -5760,13 +5760,13 @@
         <v>234</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -5797,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -5831,13 +5831,13 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5848,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5896,10 +5896,10 @@
         <v>242</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -5916,13 +5916,13 @@
         <v>0</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5953,10 +5953,10 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5964,13 +5964,13 @@
         <v>246</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -6004,10 +6004,10 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6015,10 +6015,10 @@
         <v>249</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>254</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6157,10 +6157,10 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6171,13 +6171,13 @@
         <v>0</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6191,10 +6191,10 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6225,10 +6225,10 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6287,10 +6287,10 @@
         <v>265</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -6355,13 +6355,13 @@
         <v>269</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266">
         <v>0</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -6406,7 +6406,7 @@
         <v>272</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6463,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6491,10 +6491,10 @@
         <v>277</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D275">
         <v>0</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6525,7 +6525,7 @@
         <v>279</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6542,10 +6542,10 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -6582,10 +6582,10 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6769,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6831,7 +6831,7 @@
         <v>297</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>298</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>299</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6916,13 +6916,13 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299">
         <v>0</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -6939,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6950,7 +6950,7 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -6973,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6984,10 +6984,10 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -7035,10 +7035,10 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -7069,10 +7069,10 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>314</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="C312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -7154,13 +7154,13 @@
         <v>316</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313">
         <v>0</v>
       </c>
       <c r="D313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -7191,13 +7191,13 @@
         <v>0</v>
       </c>
       <c r="C315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7242,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -7262,10 +7262,10 @@
         <v>0</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7273,7 +7273,7 @@
         <v>323</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="C322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>327</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7375,7 +7375,7 @@
         <v>329</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7429,10 +7429,10 @@
         <v>0</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -7443,10 +7443,10 @@
         <v>333</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         <v>334</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -7477,10 +7477,10 @@
         <v>335</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7514,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="C334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -7531,13 +7531,13 @@
         <v>0</v>
       </c>
       <c r="C335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D335">
         <v>0</v>
       </c>
       <c r="E335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7545,7 +7545,7 @@
         <v>339</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -7698,10 +7698,10 @@
         <v>348</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>349</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7735,13 +7735,13 @@
         <v>0</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D347">
         <v>0</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -7766,13 +7766,13 @@
         <v>352</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349">
         <v>0</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -7786,13 +7786,13 @@
         <v>0</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350">
         <v>0</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7800,7 +7800,7 @@
         <v>354</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7817,7 +7817,7 @@
         <v>355</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7854,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="D355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -7902,13 +7902,13 @@
         <v>360</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357">
         <v>0</v>
       </c>
       <c r="D357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -7953,10 +7953,10 @@
         <v>363</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -7987,13 +7987,13 @@
         <v>365</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362">
         <v>0</v>
       </c>
       <c r="D362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -8007,13 +8007,13 @@
         <v>0</v>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D363">
         <v>0</v>
       </c>
       <c r="E363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -8024,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -8044,10 +8044,10 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="D367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -8092,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -8109,13 +8109,13 @@
         <v>0</v>
       </c>
       <c r="C369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D369">
         <v>0</v>
       </c>
       <c r="E369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -8140,7 +8140,7 @@
         <v>374</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -8157,10 +8157,10 @@
         <v>375</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -8174,10 +8174,10 @@
         <v>376</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="D374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="E375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -8225,10 +8225,10 @@
         <v>379</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="D379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -8299,10 +8299,10 @@
         <v>0</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8316,10 +8316,10 @@
         <v>0</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8330,13 +8330,13 @@
         <v>0</v>
       </c>
       <c r="C382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D382">
         <v>0</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -8384,10 +8384,10 @@
         <v>0</v>
       </c>
       <c r="D385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="E387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="D389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8480,7 +8480,7 @@
         <v>394</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E392">
         <v>1</v>
@@ -8520,10 +8520,10 @@
         <v>0</v>
       </c>
       <c r="D393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -8531,13 +8531,13 @@
         <v>397</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394">
         <v>0</v>
       </c>
       <c r="D394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -8565,10 +8565,10 @@
         <v>399</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -8588,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -8599,13 +8599,13 @@
         <v>401</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398">
         <v>0</v>
       </c>
       <c r="D398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -8619,13 +8619,13 @@
         <v>0</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D399">
         <v>0</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -8633,7 +8633,7 @@
         <v>403</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>404</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>407</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -8738,10 +8738,10 @@
         <v>0</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         <v>0</v>
       </c>
       <c r="C407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>411</v>
       </c>
       <c r="B408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>412</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D409">
         <v>0</v>
@@ -8823,10 +8823,10 @@
         <v>0</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -8888,16 +8888,16 @@
         <v>418</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415">
         <v>0</v>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E419">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -8990,7 +8990,7 @@
         <v>424</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -9007,13 +9007,13 @@
         <v>425</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422">
         <v>0</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E422">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E424">
         <v>0</v>
@@ -9058,10 +9058,10 @@
         <v>428</v>
       </c>
       <c r="B425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>430</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -9112,13 +9112,13 @@
         <v>0</v>
       </c>
       <c r="C428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D428">
         <v>0</v>
       </c>
       <c r="E428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -9129,10 +9129,10 @@
         <v>0</v>
       </c>
       <c r="C429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E429">
         <v>0</v>
@@ -9143,7 +9143,7 @@
         <v>433</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -9160,7 +9160,7 @@
         <v>434</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="E431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -9194,13 +9194,13 @@
         <v>436</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433">
         <v>0</v>
       </c>
       <c r="D433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E433">
         <v>0</v>
@@ -9211,13 +9211,13 @@
         <v>437</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434">
         <v>0</v>
       </c>
       <c r="D434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E434">
         <v>0</v>
@@ -9231,13 +9231,13 @@
         <v>0</v>
       </c>
       <c r="C435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D435">
         <v>0</v>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -9279,13 +9279,13 @@
         <v>441</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438">
         <v>0</v>
       </c>
       <c r="D438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E438">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="D439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -9316,13 +9316,13 @@
         <v>0</v>
       </c>
       <c r="C440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D440">
         <v>0</v>
       </c>
       <c r="E440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="E441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="E442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -9364,7 +9364,7 @@
         <v>446</v>
       </c>
       <c r="B443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -9387,10 +9387,10 @@
         <v>0</v>
       </c>
       <c r="D444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -9398,13 +9398,13 @@
         <v>448</v>
       </c>
       <c r="B445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445">
         <v>0</v>
       </c>
       <c r="D445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E445">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -9432,7 +9432,7 @@
         <v>450</v>
       </c>
       <c r="B447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="E447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -9449,7 +9449,7 @@
         <v>451</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="E448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -9469,13 +9469,13 @@
         <v>0</v>
       </c>
       <c r="C449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D449">
         <v>0</v>
       </c>
       <c r="E449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -9483,7 +9483,7 @@
         <v>453</v>
       </c>
       <c r="B450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>454</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -9517,7 +9517,7 @@
         <v>455</v>
       </c>
       <c r="B452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="E452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -9537,13 +9537,13 @@
         <v>0</v>
       </c>
       <c r="C453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D453">
         <v>0</v>
       </c>
       <c r="E453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="C454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D454">
         <v>0</v>
@@ -9568,7 +9568,7 @@
         <v>458</v>
       </c>
       <c r="B455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>460</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="E458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -9639,10 +9639,10 @@
         <v>0</v>
       </c>
       <c r="C459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E459">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>463</v>
       </c>
       <c r="B460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460">
         <v>0</v>
       </c>
       <c r="D460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E460">
         <v>0</v>
@@ -9670,13 +9670,13 @@
         <v>464</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461">
         <v>0</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E461">
         <v>0</v>
@@ -9690,10 +9690,10 @@
         <v>0</v>
       </c>
       <c r="C462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462">
         <v>0</v>
@@ -9707,13 +9707,13 @@
         <v>0</v>
       </c>
       <c r="C463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D463">
         <v>0</v>
       </c>
       <c r="E463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -9724,13 +9724,13 @@
         <v>0</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E465">
         <v>0</v>
@@ -9761,10 +9761,10 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -9772,7 +9772,7 @@
         <v>470</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="E467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -9823,10 +9823,10 @@
         <v>473</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D470">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>474</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E473">
         <v>0</v>
@@ -9894,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E474">
         <v>0</v>
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="E475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E479">
         <v>0</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="C480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D480">
         <v>0</v>
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="E482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -10044,7 +10044,7 @@
         <v>486</v>
       </c>
       <c r="B483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="E483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
